--- a/public/excel/baocao.xlsx
+++ b/public/excel/baocao.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>SỞ Y TẾ THÀNH PHỐ HỒ CHÍ MINH</t>
   </si>
@@ -26,12 +26,15 @@
     <t>BẢNG KÊ BÁN HÀNG CĂN TIN</t>
   </si>
   <si>
-    <t>Từ ngày: 30-06-2022 đến ngày: 01-08-2022</t>
+    <t>Từ ngày: 01-07-2022 đến ngày: 31-08-2022</t>
   </si>
   <si>
     <t>STT</t>
   </si>
   <si>
+    <t>Hàng hóa</t>
+  </si>
+  <si>
     <t>Danh mục</t>
   </si>
   <si>
@@ -53,127 +56,85 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>Rau tấn ô</t>
+    <t>Bạc hà</t>
+  </si>
+  <si>
+    <t>TPCB</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>A164</t>
-  </si>
-  <si>
-    <t>27,000</t>
-  </si>
-  <si>
-    <t>54,000</t>
-  </si>
-  <si>
-    <t>Sâm bổ lượng</t>
-  </si>
-  <si>
-    <t>bịch</t>
-  </si>
-  <si>
-    <t>A166</t>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>19,000</t>
+  </si>
+  <si>
+    <t>57,000</t>
+  </si>
+  <si>
+    <t>Bánh bèo</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>A002</t>
   </si>
   <si>
     <t>17,000</t>
   </si>
   <si>
-    <t>51,000</t>
-  </si>
-  <si>
-    <t>Sơ ri</t>
-  </si>
-  <si>
-    <t>A168</t>
-  </si>
-  <si>
-    <t>33,000</t>
-  </si>
-  <si>
-    <t>Sữa đậu nành</t>
-  </si>
-  <si>
-    <t>A170</t>
-  </si>
-  <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>162,000</t>
-  </si>
-  <si>
-    <t>Thơm</t>
-  </si>
-  <si>
-    <t>quả</t>
-  </si>
-  <si>
-    <t>A173</t>
-  </si>
-  <si>
-    <t>19,000</t>
-  </si>
-  <si>
-    <t>Táo xanh</t>
-  </si>
-  <si>
-    <t>A174</t>
-  </si>
-  <si>
-    <t>39,000</t>
-  </si>
-  <si>
-    <t>Trứng cút</t>
-  </si>
-  <si>
-    <t>A180</t>
-  </si>
-  <si>
-    <t>1,000</t>
-  </si>
-  <si>
-    <t>2,000</t>
-  </si>
-  <si>
-    <t>Trứng gà</t>
-  </si>
-  <si>
-    <t>A182</t>
-  </si>
-  <si>
-    <t>3,000</t>
-  </si>
-  <si>
-    <t>90,000</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>Trứng vịt vạt</t>
-  </si>
-  <si>
-    <t>A185</t>
-  </si>
-  <si>
-    <t>3,500</t>
+    <t>Cad điện thoại</t>
+  </si>
+  <si>
+    <t>TSDTK</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>180,000</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>60,000</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>80,000</t>
+  </si>
+  <si>
+    <t>160,000</t>
   </si>
   <si>
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>489,500</t>
+    <t>474,000</t>
   </si>
   <si>
     <t>Số tiền viết bằng chữ:</t>
   </si>
   <si>
-    <t>bốn trăm  tám mươi chín nghìn năm trăm đồng</t>
-  </si>
-  <si>
-    <t>ngày 11 tháng 07 năm 2022</t>
+    <t>bốn trăm  bảy mươi bốn nghìn đồng</t>
+  </si>
+  <si>
+    <t>ngày 16 tháng 08 năm 2022</t>
   </si>
   <si>
     <t>Người lập</t>
@@ -208,7 +169,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="24"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -217,7 +178,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="14"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -250,17 +211,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -565,47 +529,49 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,347 +583,246 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14"/>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H14"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18"/>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/baocao.xlsx
+++ b/public/excel/baocao.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+  <si>
+    <t>PHIẾU ĐỀ XUẤT HÀNG HÓA CĂN TIN</t>
+  </si>
   <si>
     <t>SỞ Y TẾ THÀNH PHỐ HỒ CHÍ MINH</t>
   </si>
@@ -23,10 +26,7 @@
     <t>BỆNH VIỆN NHÂN ÁI</t>
   </si>
   <si>
-    <t>BẢNG KÊ BÁN HÀNG CĂN TIN</t>
-  </si>
-  <si>
-    <t>Từ ngày: 01-07-2022 đến ngày: 31-08-2022</t>
+    <t>Từ ngày: 01-08-2022 đến ngày: 30-09-2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -71,9 +71,6 @@
     <t>19,000</t>
   </si>
   <si>
-    <t>57,000</t>
-  </si>
-  <si>
     <t>Bánh bèo</t>
   </si>
   <si>
@@ -86,58 +83,115 @@
     <t>17,000</t>
   </si>
   <si>
-    <t>Cad điện thoại</t>
-  </si>
-  <si>
-    <t>TSDTK</t>
+    <t>Bột lộc</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>Bánh bông lan</t>
   </si>
   <si>
     <t>cái</t>
   </si>
   <si>
-    <t>B002</t>
-  </si>
-  <si>
-    <t>20,000</t>
-  </si>
-  <si>
-    <t>180,000</t>
-  </si>
-  <si>
-    <t>B003</t>
-  </si>
-  <si>
-    <t>30,000</t>
-  </si>
-  <si>
-    <t>60,000</t>
-  </si>
-  <si>
-    <t>B008</t>
-  </si>
-  <si>
-    <t>80,000</t>
-  </si>
-  <si>
-    <t>160,000</t>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>11,000</t>
+  </si>
+  <si>
+    <t>Bánh cam</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>3,500</t>
+  </si>
+  <si>
+    <t>Bánh cưốn chả</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>Bánh chưng nhỏ</t>
+  </si>
+  <si>
+    <t>cây</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>Bánh cuốn</t>
+  </si>
+  <si>
+    <t>0,5kg</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>Bánh ướt</t>
+  </si>
+  <si>
+    <t>A193</t>
+  </si>
+  <si>
+    <t>Bắp cải</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>16,000</t>
+  </si>
+  <si>
+    <t>Cà chua</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>Cà pháo</t>
+  </si>
+  <si>
+    <t>A205</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>Cải thìa</t>
+  </si>
+  <si>
+    <t>A213</t>
   </si>
   <si>
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>474,000</t>
+    <t>505,500</t>
   </si>
   <si>
     <t>Số tiền viết bằng chữ:</t>
   </si>
   <si>
-    <t>bốn trăm  bảy mươi bốn nghìn đồng</t>
-  </si>
-  <si>
-    <t>ngày 16 tháng 08 năm 2022</t>
+    <t>năm trăm  năm nghìn năm trăm đồng</t>
+  </si>
+  <si>
+    <t>ngày 09 tháng 09 năm 2022</t>
   </si>
   <si>
     <t>Người lập</t>
+  </si>
+  <si>
+    <t>PT Bộ Phận</t>
   </si>
   <si>
     <t>kế toán</t>
@@ -529,38 +583,38 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="4" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -632,10 +686,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>38000</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -644,25 +698,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>34000</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -671,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>119000</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -698,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
+        <v>88000</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -725,96 +779,395 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>33000</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>11000</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10500</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>17000</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5">
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>11000</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="H15" s="5">
+        <v>20000</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13" t="s">
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14"/>
-      <c r="B14" t="s">
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14" t="s">
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H14"/>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18"/>
-      <c r="B18" t="s">
+      <c r="A18" s="5">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H18"/>
+      <c r="F18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>32000</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>34000</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>14000</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>14000</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29"/>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/excel/baocao.xlsx
+++ b/public/excel/baocao.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>PHIẾU ĐỀ XUẤT HÀNG HÓA CĂN TIN</t>
   </si>
@@ -26,7 +26,7 @@
     <t>BỆNH VIỆN NHÂN ÁI</t>
   </si>
   <si>
-    <t>Từ ngày: 01-08-2022 đến ngày: 30-09-2022</t>
+    <t>Từ ngày: 01-08-2022 đến ngày: 30-10-2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -173,19 +173,52 @@
     <t>A213</t>
   </si>
   <si>
+    <t>Cad điện thoại</t>
+  </si>
+  <si>
+    <t>TSDTK</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>40,000</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>80,000</t>
+  </si>
+  <si>
+    <t>Nước yến</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>CT5Z</t>
+  </si>
+  <si>
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>505,500</t>
+    <t>726,500</t>
   </si>
   <si>
     <t>Số tiền viết bằng chữ:</t>
   </si>
   <si>
-    <t>năm trăm  năm nghìn năm trăm đồng</t>
-  </si>
-  <si>
-    <t>ngày 09 tháng 09 năm 2022</t>
+    <t>bảy trăm  hai mươi sáu nghìn năm trăm đồng</t>
+  </si>
+  <si>
+    <t>ngày 03 tháng 10 năm 2022</t>
   </si>
   <si>
     <t>Người lập</t>
@@ -583,16 +616,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="50" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="9" bestFit="true" customWidth="true" style="0"/>
@@ -1099,75 +1132,210 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="A22" s="5">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I22"/>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>40000</v>
+      </c>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24"/>
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>80000</v>
+      </c>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25"/>
-      <c r="B25" t="s">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="F25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25" t="s">
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>80000</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H25"/>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>11000</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29"/>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
+      <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H29"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/excel/baocao.xlsx
+++ b/public/excel/baocao.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>PHIẾU ĐỀ XUẤT HÀNG HÓA CĂN TIN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+  <si>
+    <t>BẢNG KÊ BÁN HÀNG CĂN TIN</t>
   </si>
   <si>
     <t>SỞ Y TẾ THÀNH PHỐ HỒ CHÍ MINH</t>
@@ -26,7 +26,7 @@
     <t>BỆNH VIỆN NHÂN ÁI</t>
   </si>
   <si>
-    <t>Từ ngày: 01-09-2022 đến ngày: 30-11-2022</t>
+    <t>Từ ngày: 01-08-2022 đến ngày: 02-11-2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -38,6 +38,9 @@
     <t>Danh mục</t>
   </si>
   <si>
+    <t>Khoa</t>
+  </si>
+  <si>
     <t>ĐVT</t>
   </si>
   <si>
@@ -56,40 +59,190 @@
     <t>Ghi Chú</t>
   </si>
   <si>
+    <t>Bạc hà</t>
+  </si>
+  <si>
+    <t>TPCB</t>
+  </si>
+  <si>
+    <t>KN001</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>19,000</t>
+  </si>
+  <si>
+    <t>Bánh bèo</t>
+  </si>
+  <si>
+    <t>KN002</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>17,000</t>
+  </si>
+  <si>
+    <t>Bột lộc</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>Bánh bông lan</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>11,000</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Bánh cam</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>3,500</t>
+  </si>
+  <si>
+    <t>Bánh cưốn chả</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>Bánh chưng nhỏ</t>
+  </si>
+  <si>
+    <t>cây</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>Bánh cuốn</t>
+  </si>
+  <si>
+    <t>0,5kg</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>Bánh ướt</t>
+  </si>
+  <si>
+    <t>A193</t>
+  </si>
+  <si>
+    <t>Bắp cải</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>16,000</t>
+  </si>
+  <si>
     <t>Bột năng</t>
   </si>
   <si>
-    <t>TPCB</t>
-  </si>
-  <si>
     <t>0,1kg</t>
   </si>
   <si>
     <t>A200</t>
   </si>
   <si>
-    <t>3,500</t>
+    <t>Cà chua</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>Cà pháo</t>
+  </si>
+  <si>
+    <t>A205</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>Cải thìa</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>Cad điện thoại</t>
+  </si>
+  <si>
+    <t>TSDTK</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>40,000</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>80,000</t>
   </si>
   <si>
     <t>Tổng tiền</t>
   </si>
   <si>
+    <t>719,000</t>
+  </si>
+  <si>
     <t>Số tiền viết bằng chữ:</t>
   </si>
   <si>
-    <t>ba nghìn năm trăm đồng</t>
-  </si>
-  <si>
-    <t>ngày 01 tháng 11 năm 2022</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
+    <t>bảy trăm  mười chín nghìn đồng</t>
+  </si>
+  <si>
+    <t>Ngày 02 tháng 11 năm 2022</t>
+  </si>
+  <si>
+    <t>Người lập</t>
   </si>
   <si>
     <t>PT Bộ Phận</t>
   </si>
   <si>
-    <t>Người đề nghị</t>
+    <t>kế toán</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Huệ</t>
   </si>
 </sst>
 </file>
@@ -472,36 +625,36 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="36" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,7 +667,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -526,7 +679,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -554,100 +707,707 @@
       <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>38000</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>34000</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5">
+        <v>119000</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
+        <v>88000</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>33000</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>11000</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>10500</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>17000</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>11000</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>32000</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3500</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>34000</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>14000</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
         <v>17</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3500</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>14000</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5">
         <v>18</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5">
         <v>20</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9" t="s">
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>80000</v>
+      </c>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5">
         <v>21</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>80000</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/excel/baocao.xlsx
+++ b/public/excel/baocao.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t>BẢNG KÊ BÁN HÀNG CĂN TIN</t>
   </si>
@@ -26,7 +26,7 @@
     <t>BỆNH VIỆN NHÂN ÁI</t>
   </si>
   <si>
-    <t>Từ ngày: 01-08-2022 đến ngày: 02-11-2022</t>
+    <t>Từ ngày: 01-11-2022 đến ngày: 11-11-2022</t>
   </si>
   <si>
     <t>STT</t>
@@ -59,175 +59,898 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>Bạc hà</t>
+    <t>Bánh bèo</t>
   </si>
   <si>
     <t>TPCB</t>
   </si>
   <si>
-    <t>KN001</t>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>17,000</t>
+  </si>
+  <si>
+    <t>Bánh bò nhỏ</t>
+  </si>
+  <si>
+    <t>bịch</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>Bánh cam</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>3,500</t>
+  </si>
+  <si>
+    <t>Bánh mì không</t>
+  </si>
+  <si>
+    <t>ổ</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>4,500</t>
+  </si>
+  <si>
+    <t>Bánh mì thịt</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>Bánh tráng mỏng</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>13,000</t>
+  </si>
+  <si>
+    <t>Bánh ướt chả</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>19,000</t>
+  </si>
+  <si>
+    <t>Bắp cải</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>19,000</t>
-  </si>
-  <si>
-    <t>Bánh bèo</t>
-  </si>
-  <si>
-    <t>KN002</t>
-  </si>
-  <si>
-    <t>hộp</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>17,000</t>
-  </si>
-  <si>
-    <t>Bột lộc</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>Bánh bông lan</t>
-  </si>
-  <si>
-    <t>cái</t>
-  </si>
-  <si>
-    <t>A005</t>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>31,000</t>
+  </si>
+  <si>
+    <t>Bí xanh</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>Bò kho</t>
+  </si>
+  <si>
+    <t>tô</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bông cúc </t>
+  </si>
+  <si>
+    <t>bó</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>44,000</t>
+  </si>
+  <si>
+    <t>Bún thịt nướng</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>Bún bò huế</t>
+  </si>
+  <si>
+    <t>A035</t>
+  </si>
+  <si>
+    <t>Bún riêu</t>
+  </si>
+  <si>
+    <t>A037</t>
+  </si>
+  <si>
+    <t>Tỏi ớt</t>
+  </si>
+  <si>
+    <t>A042</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>Cà chua</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>33,000</t>
+  </si>
+  <si>
+    <t>Cải thảo</t>
+  </si>
+  <si>
+    <t>A052</t>
+  </si>
+  <si>
+    <t>24,000</t>
+  </si>
+  <si>
+    <t>Cơm tấm</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>Củ dền</t>
+  </si>
+  <si>
+    <t>A060</t>
+  </si>
+  <si>
+    <t>27,000</t>
+  </si>
+  <si>
+    <t>Cháo gà+ cháo lòng</t>
+  </si>
+  <si>
+    <t>A067</t>
+  </si>
+  <si>
+    <t>Chè</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>8,000</t>
+  </si>
+  <si>
+    <t>Chuối</t>
+  </si>
+  <si>
+    <t>A074</t>
+  </si>
+  <si>
+    <t>Chuối chiên +bánh tiêu</t>
+  </si>
+  <si>
+    <t>A075</t>
+  </si>
+  <si>
+    <t>Đậu que</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>Hủ tiếu bò kho</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>Khoai mỡ</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>Khoai tây</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>22,000</t>
+  </si>
+  <si>
+    <t>Mồng tơi</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mướp </t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>Trứng gà</t>
+  </si>
+  <si>
+    <t>quả</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>Trứng vịt lạt</t>
+  </si>
+  <si>
+    <t>A174</t>
+  </si>
+  <si>
+    <t>4,000</t>
+  </si>
+  <si>
+    <t>Xoài chín</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>Xoài sống</t>
+  </si>
+  <si>
+    <t>A180</t>
+  </si>
+  <si>
+    <t>Xôi Ngọt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hộp </t>
+  </si>
+  <si>
+    <t>A182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xôi vị </t>
+  </si>
+  <si>
+    <t>A183</t>
+  </si>
+  <si>
+    <t>Ớt trái</t>
+  </si>
+  <si>
+    <t>A184</t>
+  </si>
+  <si>
+    <t>5,000</t>
+  </si>
+  <si>
+    <t>Bánh cuốn</t>
+  </si>
+  <si>
+    <t>0,5kg</t>
+  </si>
+  <si>
+    <t>A192</t>
+  </si>
+  <si>
+    <t>Bún tươi</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>Cà rốt</t>
+  </si>
+  <si>
+    <t>A207</t>
+  </si>
+  <si>
+    <t>14,000</t>
+  </si>
+  <si>
+    <t>Cải chua</t>
+  </si>
+  <si>
+    <t>A210</t>
+  </si>
+  <si>
+    <t>A212</t>
+  </si>
+  <si>
+    <t>12,000</t>
+  </si>
+  <si>
+    <t>A217</t>
+  </si>
+  <si>
+    <t>Chanh</t>
+  </si>
+  <si>
+    <t>A222</t>
+  </si>
+  <si>
+    <t>15,000</t>
+  </si>
+  <si>
+    <t>Dưa leo</t>
+  </si>
+  <si>
+    <t>A225</t>
+  </si>
+  <si>
+    <t>A231</t>
+  </si>
+  <si>
+    <t>Giá</t>
+  </si>
+  <si>
+    <t>A233</t>
+  </si>
+  <si>
+    <t>Hành lá</t>
+  </si>
+  <si>
+    <t>0,1kg</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>A246</t>
   </si>
   <si>
     <t>11,000</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Bánh cam</t>
-  </si>
-  <si>
-    <t>A006</t>
-  </si>
-  <si>
-    <t>3,500</t>
-  </si>
-  <si>
-    <t>Bánh cưốn chả</t>
-  </si>
-  <si>
-    <t>A008</t>
-  </si>
-  <si>
-    <t>Bánh chưng nhỏ</t>
-  </si>
-  <si>
-    <t>cây</t>
-  </si>
-  <si>
-    <t>A009</t>
-  </si>
-  <si>
-    <t>Bánh cuốn</t>
-  </si>
-  <si>
-    <t>0,5kg</t>
-  </si>
-  <si>
-    <t>A192</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>Bánh ướt</t>
-  </si>
-  <si>
-    <t>A193</t>
-  </si>
-  <si>
-    <t>Bắp cải</t>
-  </si>
-  <si>
-    <t>A194</t>
-  </si>
-  <si>
-    <t>16,000</t>
-  </si>
-  <si>
-    <t>Bột năng</t>
-  </si>
-  <si>
-    <t>0,1kg</t>
-  </si>
-  <si>
-    <t>A200</t>
-  </si>
-  <si>
-    <t>Cà chua</t>
-  </si>
-  <si>
-    <t>A204</t>
-  </si>
-  <si>
-    <t>Cà pháo</t>
-  </si>
-  <si>
-    <t>A205</t>
-  </si>
-  <si>
-    <t>14,000</t>
-  </si>
-  <si>
-    <t>Cải thìa</t>
-  </si>
-  <si>
-    <t>A213</t>
-  </si>
-  <si>
-    <t>Cad điện thoại</t>
+    <t>Khô ba sa</t>
+  </si>
+  <si>
+    <t>A247</t>
+  </si>
+  <si>
+    <t>68,000</t>
+  </si>
+  <si>
+    <t>Me vàng</t>
+  </si>
+  <si>
+    <t>A253</t>
+  </si>
+  <si>
+    <t>Ngò gai + ôm</t>
+  </si>
+  <si>
+    <t>A261</t>
+  </si>
+  <si>
+    <t>A265</t>
+  </si>
+  <si>
+    <t>Rau ghém</t>
+  </si>
+  <si>
+    <t>A268</t>
+  </si>
+  <si>
+    <t>A270</t>
+  </si>
+  <si>
+    <t>9,000</t>
+  </si>
+  <si>
+    <t>Tỏi</t>
+  </si>
+  <si>
+    <t>A277</t>
+  </si>
+  <si>
+    <t>7,000</t>
+  </si>
+  <si>
+    <t>Tôm khô</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
+    <t>55,000</t>
+  </si>
+  <si>
+    <t>Bí đỏ</t>
+  </si>
+  <si>
+    <t>a912</t>
+  </si>
+  <si>
+    <t>a913</t>
+  </si>
+  <si>
+    <t>Hủ tiếu</t>
+  </si>
+  <si>
+    <t>a914</t>
+  </si>
+  <si>
+    <t>a915</t>
+  </si>
+  <si>
+    <t>Nhang</t>
+  </si>
+  <si>
+    <t>a916</t>
+  </si>
+  <si>
+    <t>45,000</t>
+  </si>
+  <si>
+    <t>Mì trứng</t>
+  </si>
+  <si>
+    <t>a917</t>
+  </si>
+  <si>
+    <t>Hành tím</t>
+  </si>
+  <si>
+    <t>a918</t>
+  </si>
+  <si>
+    <t>lẩu</t>
+  </si>
+  <si>
+    <t>a920</t>
+  </si>
+  <si>
+    <t>210,000</t>
+  </si>
+  <si>
+    <t>Thịt thêm</t>
+  </si>
+  <si>
+    <t>a921</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>Cá Khô tra</t>
+  </si>
+  <si>
+    <t>c002</t>
+  </si>
+  <si>
+    <t>Sữa tươi có đường</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Bịch</t>
+  </si>
+  <si>
+    <t>CT128</t>
+  </si>
+  <si>
+    <t>Dầu gội clear vòi</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>CTA01</t>
+  </si>
+  <si>
+    <t>170,000</t>
+  </si>
+  <si>
+    <t>Bông ráy tai</t>
+  </si>
+  <si>
+    <t>CTB16</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>Bột ngọt</t>
+  </si>
+  <si>
+    <t>Gói</t>
+  </si>
+  <si>
+    <t>CTB181</t>
+  </si>
+  <si>
+    <t>Dao cạo râu</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>CTD15</t>
+  </si>
+  <si>
+    <t>Dầu xả comfor + dwny</t>
+  </si>
+  <si>
+    <t>CTD6</t>
+  </si>
+  <si>
+    <t>2,500</t>
+  </si>
+  <si>
+    <t>Nước bò húc</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>CTGS11</t>
+  </si>
+  <si>
+    <t>Mì lẩu thái</t>
+  </si>
+  <si>
+    <t>CTGS12</t>
+  </si>
+  <si>
+    <t>Cà phê việt</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>CTGS15</t>
+  </si>
+  <si>
+    <t>66,000</t>
+  </si>
+  <si>
+    <t>Cà phê G7</t>
+  </si>
+  <si>
+    <t>CTGS17</t>
+  </si>
+  <si>
+    <t>61,000</t>
+  </si>
+  <si>
+    <t>Giay vệ sinh an an</t>
+  </si>
+  <si>
+    <t>Cuộn</t>
+  </si>
+  <si>
+    <t>CTGS2</t>
+  </si>
+  <si>
+    <t>Dầu trường sơn</t>
+  </si>
+  <si>
+    <t>CTGS20</t>
+  </si>
+  <si>
+    <t>Dầu gội clear nhỏ</t>
+  </si>
+  <si>
+    <t>CTGS22</t>
+  </si>
+  <si>
+    <t>64,000</t>
+  </si>
+  <si>
+    <t>Trà bắc</t>
+  </si>
+  <si>
+    <t>CTGS28</t>
+  </si>
+  <si>
+    <t>Dầu gội sunsilk trung</t>
+  </si>
+  <si>
+    <t>CTGS91</t>
+  </si>
+  <si>
+    <t>88,000</t>
+  </si>
+  <si>
+    <t>Nước coca</t>
+  </si>
+  <si>
+    <t>CTGZ12</t>
+  </si>
+  <si>
+    <t>Dầu gội súnilk</t>
+  </si>
+  <si>
+    <t>chai</t>
+  </si>
+  <si>
+    <t>CTGZ126</t>
+  </si>
+  <si>
+    <t>Sữa đặc</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>CTGZ127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kem closep </t>
+  </si>
+  <si>
+    <t>CTGZ132</t>
+  </si>
+  <si>
+    <t>Kem p/s</t>
+  </si>
+  <si>
+    <t>CTGZ133</t>
+  </si>
+  <si>
+    <t>Nước rửa chén</t>
+  </si>
+  <si>
+    <t>CTGZ134</t>
+  </si>
+  <si>
+    <t>Xà bông ô mô</t>
+  </si>
+  <si>
+    <t>CTGZ139</t>
+  </si>
+  <si>
+    <t>21,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nước pepsi </t>
+  </si>
+  <si>
+    <t>CTGZ14</t>
+  </si>
+  <si>
+    <t>Nước sting</t>
+  </si>
+  <si>
+    <t>CTGZ37</t>
+  </si>
+  <si>
+    <t>Lăng ngựa</t>
+  </si>
+  <si>
+    <t>CTGZ41</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>Bột nêm</t>
+  </si>
+  <si>
+    <t>CTGZ49</t>
+  </si>
+  <si>
+    <t>Trà bảo tín</t>
+  </si>
+  <si>
+    <t>CTGZ51</t>
+  </si>
+  <si>
+    <t>Bánh bạc</t>
+  </si>
+  <si>
+    <t>CTGZ58</t>
+  </si>
+  <si>
+    <t>Đường cát</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>CTGZ60</t>
+  </si>
+  <si>
+    <t>26,000</t>
+  </si>
+  <si>
+    <t>Nước mắm nam ngư</t>
+  </si>
+  <si>
+    <t>CTGZ66</t>
+  </si>
+  <si>
+    <t>35,000</t>
+  </si>
+  <si>
+    <t>Nước 7up</t>
+  </si>
+  <si>
+    <t>CTGZ70</t>
+  </si>
+  <si>
+    <t>Bột ngũ cốc</t>
+  </si>
+  <si>
+    <t>CTGZ76</t>
+  </si>
+  <si>
+    <t>Mì hảo hảo</t>
+  </si>
+  <si>
+    <t>CTGZ87</t>
+  </si>
+  <si>
+    <t>Hủ tiếu các loại</t>
+  </si>
+  <si>
+    <t>CTHTIEU</t>
+  </si>
+  <si>
+    <t>Lăn nivia</t>
+  </si>
+  <si>
+    <t>CTI0</t>
+  </si>
+  <si>
+    <t>Sữa tắm Lux</t>
+  </si>
+  <si>
+    <t>CTLUX</t>
+  </si>
+  <si>
+    <t>Phở các loại</t>
+  </si>
+  <si>
+    <t>CTPCL</t>
+  </si>
+  <si>
+    <t>Cà phê phố</t>
+  </si>
+  <si>
+    <t>CTPHE1</t>
+  </si>
+  <si>
+    <t>46,000</t>
+  </si>
+  <si>
+    <t>Băng vệ sinh Diana</t>
+  </si>
+  <si>
+    <t>CTPZ</t>
+  </si>
+  <si>
+    <t>Sữa fami</t>
+  </si>
+  <si>
+    <t>CTS10</t>
+  </si>
+  <si>
+    <t>5,500</t>
+  </si>
+  <si>
+    <t>Dầu thái</t>
+  </si>
+  <si>
+    <t>CTT0</t>
+  </si>
+  <si>
+    <t>Tăm xỉa răng</t>
+  </si>
+  <si>
+    <t>CTT1</t>
+  </si>
+  <si>
+    <t>Tương ớt</t>
+  </si>
+  <si>
+    <t>CTT101</t>
+  </si>
+  <si>
+    <t>Bún các loại</t>
+  </si>
+  <si>
+    <t>CTZ131</t>
+  </si>
+  <si>
+    <t>Vim lau nhà</t>
+  </si>
+  <si>
+    <t>CTZ60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện thoại </t>
   </si>
   <si>
     <t>TSDTK</t>
   </si>
   <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>40,000</t>
-  </si>
-  <si>
-    <t>B008</t>
-  </si>
-  <si>
-    <t>80,000</t>
+    <t>Phút</t>
+  </si>
+  <si>
+    <t>NA003</t>
+  </si>
+  <si>
+    <t>NA004</t>
+  </si>
+  <si>
+    <t>NA005</t>
+  </si>
+  <si>
+    <t>NA088</t>
+  </si>
+  <si>
+    <t>NA089</t>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>Bánh canh</t>
+  </si>
+  <si>
+    <t>na112</t>
   </si>
   <si>
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>719,000</t>
+    <t>13,860,500</t>
   </si>
   <si>
     <t>Số tiền viết bằng chữ:</t>
   </si>
   <si>
-    <t>bảy trăm  mười chín nghìn đồng</t>
-  </si>
-  <si>
-    <t>Ngày 02 tháng 11 năm 2022</t>
+    <t>mười ba triệu tám trăm  sáu mươi nghìn năm trăm đồng</t>
+  </si>
+  <si>
+    <t>Ngày 11 tháng 11 năm 2022</t>
   </si>
   <si>
     <t>Người lập</t>
@@ -625,16 +1348,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="62" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="13" bestFit="true" customWidth="true" style="0"/>
@@ -721,23 +1444,23 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I6" s="5">
-        <v>38000</v>
+        <v>119000</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -746,28 +1469,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -776,28 +1499,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I8" s="5">
-        <v>119000</v>
+        <v>7000</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -806,28 +1529,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" s="5">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="I9" s="5">
-        <v>88000</v>
+        <v>441000</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -836,28 +1559,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H10" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I10" s="5">
-        <v>33000</v>
+        <v>119000</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -866,28 +1589,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
+      <c r="D11" s="5">
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H11" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="5">
-        <v>11000</v>
+        <v>52000</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -896,28 +1619,28 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -926,28 +1649,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>31</v>
+      <c r="D13" s="5">
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5">
-        <v>17000</v>
+        <v>62000</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -956,28 +1679,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="H14" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="5">
-        <v>11000</v>
+        <v>95000</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -986,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
@@ -995,19 +1718,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H15" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15" s="5">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -1016,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -1025,19 +1748,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5">
-        <v>20000</v>
+        <v>44000</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -1046,28 +1769,28 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
+      <c r="D17" s="5">
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I17" s="5">
-        <v>10000</v>
+        <v>210000</v>
       </c>
       <c r="J17" s="5"/>
     </row>
@@ -1076,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
@@ -1085,19 +1808,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H18" s="5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I18" s="5">
-        <v>32000</v>
+        <v>540000</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -1106,28 +1829,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I19" s="5">
-        <v>3500</v>
+        <v>390000</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -1136,28 +1859,28 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
+      <c r="D20" s="5">
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H20" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I20" s="5">
-        <v>34000</v>
+        <v>50000</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -1166,28 +1889,28 @@
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>21</v>
+      <c r="D21" s="5">
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H21" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="5">
-        <v>14000</v>
+        <v>99000</v>
       </c>
       <c r="J21" s="5"/>
     </row>
@@ -1196,28 +1919,28 @@
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
+      <c r="D22" s="5">
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="5">
-        <v>14000</v>
+        <v>72000</v>
       </c>
       <c r="J22" s="5"/>
     </row>
@@ -1226,28 +1949,28 @@
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I23" s="5">
-        <v>10000</v>
+        <v>330000</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -1256,26 +1979,28 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
       </c>
       <c r="I24" s="5">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -1284,26 +2009,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="5">
-        <v>80000</v>
+        <v>81000</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -1312,102 +2039,3024 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7</v>
+      </c>
+      <c r="I26" s="5">
+        <v>56000</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="5">
+        <v>15</v>
+      </c>
+      <c r="I27" s="5">
+        <v>195000</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="5">
+        <v>15</v>
+      </c>
+      <c r="I28" s="5">
+        <v>52500</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>33000</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4</v>
+      </c>
+      <c r="I30" s="5">
+        <v>120000</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>66000</v>
+      </c>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>44000</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>57000</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3</v>
+      </c>
+      <c r="I35" s="5">
+        <v>51000</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="5">
+        <v>120</v>
+      </c>
+      <c r="I36" s="5">
+        <v>360000</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="5">
+        <v>40</v>
+      </c>
+      <c r="I37" s="5">
+        <v>160000</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>44000</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>31000</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="5">
+        <v>4</v>
+      </c>
+      <c r="I40" s="5">
+        <v>32000</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="5">
+        <v>3</v>
+      </c>
+      <c r="I41" s="5">
+        <v>39000</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="5">
+        <v>3</v>
+      </c>
+      <c r="I42" s="5">
+        <v>15000</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2</v>
+      </c>
+      <c r="I43" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5">
+        <v>39</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>16000</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>34000</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5">
+        <v>41</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5">
+        <v>28000</v>
+      </c>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5">
+        <v>17000</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <v>12000</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="5">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
+        <v>14000</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>15000</v>
+      </c>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5">
+        <v>46</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>17000</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>8000</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="5">
+        <v>17</v>
+      </c>
+      <c r="I54" s="5">
+        <v>51000</v>
+      </c>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>11000</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2</v>
+      </c>
+      <c r="I56" s="5">
+        <v>136000</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>27000</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="5">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="5">
+        <v>10</v>
+      </c>
+      <c r="I58" s="5">
+        <v>40000</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="5">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3</v>
+      </c>
+      <c r="I59" s="5">
+        <v>24000</v>
+      </c>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="5">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3</v>
+      </c>
+      <c r="I60" s="5">
+        <v>9000</v>
+      </c>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="5">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <v>9000</v>
+      </c>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="5">
+        <v>57</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="5">
+        <v>5</v>
+      </c>
+      <c r="I62" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="5">
+        <v>58</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" s="5">
+        <v>3</v>
+      </c>
+      <c r="I63" s="5">
+        <v>165000</v>
+      </c>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="5">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" s="5">
+        <v>6</v>
+      </c>
+      <c r="I64" s="5">
+        <v>114000</v>
+      </c>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="5">
         <v>60</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="B65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="5">
+        <v>61</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="5">
+        <v>10</v>
+      </c>
+      <c r="I66" s="5">
+        <v>300000</v>
+      </c>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5">
+        <v>62</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="5">
+        <v>63</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>45000</v>
+      </c>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="5">
         <v>64</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="B69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>27000</v>
+      </c>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="5">
         <v>65</v>
       </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="B70" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="5">
+        <v>5</v>
+      </c>
+      <c r="I70" s="5">
+        <v>25000</v>
+      </c>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="5">
+        <v>66</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5">
+        <v>210000</v>
+      </c>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="5">
+        <v>67</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>100000</v>
+      </c>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="5">
+        <v>68</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2</v>
+      </c>
+      <c r="I73" s="5">
+        <v>136000</v>
+      </c>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="5">
+        <v>69</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H74" s="5">
+        <v>30</v>
+      </c>
+      <c r="I74" s="5">
+        <v>270000</v>
+      </c>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="5">
+        <v>70</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5">
+        <v>170000</v>
+      </c>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="5">
+        <v>71</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H76" s="5">
+        <v>30</v>
+      </c>
+      <c r="I76" s="5">
+        <v>30000</v>
+      </c>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="5">
+        <v>72</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H77" s="5">
+        <v>7</v>
+      </c>
+      <c r="I77" s="5">
+        <v>63000</v>
+      </c>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="5">
+        <v>73</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="5">
+        <v>8</v>
+      </c>
+      <c r="I78" s="5">
         <v>80000</v>
       </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="5">
+        <v>74</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H79" s="5">
+        <v>10</v>
+      </c>
+      <c r="I79" s="5">
+        <v>25000</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="5">
+        <v>75</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="5">
+        <v>12</v>
+      </c>
+      <c r="I80" s="5">
+        <v>168000</v>
+      </c>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="5">
+        <v>76</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" s="5">
+        <v>20</v>
+      </c>
+      <c r="I81" s="5">
+        <v>160000</v>
+      </c>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="5">
+        <v>77</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H82" s="5">
+        <v>21</v>
+      </c>
+      <c r="I82" s="5">
+        <v>1386000</v>
+      </c>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="5">
+        <v>78</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5">
+        <v>61000</v>
+      </c>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="5">
+        <v>79</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>8000</v>
+      </c>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="5">
+        <v>80</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" s="5">
+        <v>3</v>
+      </c>
+      <c r="I85" s="5">
+        <v>93000</v>
+      </c>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="5">
+        <v>81</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5">
+        <v>64000</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="5">
+        <v>82</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="5">
+        <v>11</v>
+      </c>
+      <c r="I87" s="5">
+        <v>187000</v>
+      </c>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="5">
+        <v>83</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5">
+        <v>88000</v>
+      </c>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="5">
+        <v>84</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H89" s="5">
+        <v>6</v>
+      </c>
+      <c r="I89" s="5">
+        <v>60000</v>
+      </c>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="5">
+        <v>85</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+      <c r="I90" s="5">
+        <v>44000</v>
+      </c>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="5">
+        <v>86</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30"/>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34"/>
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34"/>
+      <c r="H91" s="5">
+        <v>15</v>
+      </c>
+      <c r="I91" s="5">
+        <v>360000</v>
+      </c>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="5">
+        <v>87</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5">
+        <v>31000</v>
+      </c>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="5">
+        <v>88</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" s="5">
+        <v>3</v>
+      </c>
+      <c r="I93" s="5">
+        <v>60000</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="5">
+        <v>89</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H94" s="5">
+        <v>4</v>
+      </c>
+      <c r="I94" s="5">
+        <v>60000</v>
+      </c>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="5">
+        <v>90</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="5">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H95" s="5">
+        <v>8</v>
+      </c>
+      <c r="I95" s="5">
+        <v>168000</v>
+      </c>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="5">
+        <v>91</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" s="5">
+        <v>40</v>
+      </c>
+      <c r="I96" s="5">
+        <v>400000</v>
+      </c>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="5">
+        <v>92</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H97" s="5">
+        <v>32</v>
+      </c>
+      <c r="I97" s="5">
+        <v>320000</v>
+      </c>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="5">
+        <v>93</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="5">
+        <v>94</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="5">
+        <v>17</v>
+      </c>
+      <c r="I99" s="5">
+        <v>340000</v>
+      </c>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="5">
+        <v>95</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H100" s="5">
+        <v>22</v>
+      </c>
+      <c r="I100" s="5">
+        <v>242000</v>
+      </c>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="5">
+        <v>96</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" s="5">
+        <v>2</v>
+      </c>
+      <c r="I101" s="5">
+        <v>22000</v>
+      </c>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="5">
+        <v>97</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H102" s="5">
+        <v>2</v>
+      </c>
+      <c r="I102" s="5">
+        <v>52000</v>
+      </c>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="5">
+        <v>98</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="5">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H103" s="5">
+        <v>11</v>
+      </c>
+      <c r="I103" s="5">
+        <v>385000</v>
+      </c>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="5">
+        <v>99</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H104" s="5">
+        <v>7</v>
+      </c>
+      <c r="I104" s="5">
+        <v>70000</v>
+      </c>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="5">
+        <v>100</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="5">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5">
+        <v>64000</v>
+      </c>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="5">
+        <v>101</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H106" s="5">
+        <v>45</v>
+      </c>
+      <c r="I106" s="5">
+        <v>225000</v>
+      </c>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="5">
+        <v>102</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="5">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" s="5">
+        <v>15</v>
+      </c>
+      <c r="I107" s="5">
+        <v>120000</v>
+      </c>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="5">
+        <v>103</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H108" s="5">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5">
+        <v>44000</v>
+      </c>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="5">
+        <v>104</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="5">
+        <v>50000</v>
+      </c>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="5">
+        <v>105</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" s="5">
+        <v>15</v>
+      </c>
+      <c r="I110" s="5">
+        <v>120000</v>
+      </c>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="5">
+        <v>106</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5">
+        <v>46000</v>
+      </c>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="5">
+        <v>107</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H112" s="5">
+        <v>4</v>
+      </c>
+      <c r="I112" s="5">
+        <v>96000</v>
+      </c>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="5">
+        <v>108</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H113" s="5">
+        <v>18</v>
+      </c>
+      <c r="I113" s="5">
+        <v>99000</v>
+      </c>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="5">
+        <v>109</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5">
+        <v>33000</v>
+      </c>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="5">
+        <v>110</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H115" s="5">
+        <v>6</v>
+      </c>
+      <c r="I115" s="5">
+        <v>6000</v>
+      </c>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="5">
+        <v>111</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="5">
+        <v>7</v>
+      </c>
+      <c r="I116" s="5">
+        <v>98000</v>
+      </c>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="5">
+        <v>112</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" s="5">
+        <v>10</v>
+      </c>
+      <c r="I117" s="5">
+        <v>80000</v>
+      </c>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="5">
+        <v>113</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1</v>
+      </c>
+      <c r="I118" s="5">
+        <v>33000</v>
+      </c>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="5">
+        <v>114</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1</v>
+      </c>
+      <c r="I119" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="5">
+        <v>115</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H120" s="5">
+        <v>7</v>
+      </c>
+      <c r="I120" s="5">
+        <v>70000</v>
+      </c>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="5">
+        <v>116</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H121" s="5">
+        <v>5</v>
+      </c>
+      <c r="I121" s="5">
+        <v>250000</v>
+      </c>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="5">
+        <v>117</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H122" s="5">
+        <v>6</v>
+      </c>
+      <c r="I122" s="5">
+        <v>600000</v>
+      </c>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="5">
+        <v>118</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H123" s="5">
+        <v>1</v>
+      </c>
+      <c r="I123" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="5">
+        <v>119</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" s="5">
+        <v>3</v>
+      </c>
+      <c r="I124" s="5">
+        <v>90000</v>
+      </c>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>307</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125" t="s">
+        <v>308</v>
+      </c>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>309</v>
+      </c>
+      <c r="B126" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127" t="s">
+        <v>311</v>
+      </c>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128"/>
+      <c r="B128" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128" t="s">
+        <v>313</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128" t="s">
+        <v>314</v>
+      </c>
+      <c r="H128"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132"/>
+      <c r="B132" t="s">
+        <v>315</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132" t="s">
+        <v>316</v>
+      </c>
+      <c r="H132"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
